--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8417399999999999</v>
+        <v>6.056093000000001</v>
       </c>
       <c r="H2">
-        <v>1.68348</v>
+        <v>12.112186</v>
       </c>
       <c r="I2">
-        <v>0.0119744574213572</v>
+        <v>0.07401743124477776</v>
       </c>
       <c r="J2">
-        <v>0.008423523143208028</v>
+        <v>0.05485886923375932</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5215465</v>
+        <v>1.2562095</v>
       </c>
       <c r="N2">
-        <v>1.043093</v>
+        <v>2.512419</v>
       </c>
       <c r="O2">
-        <v>0.3993854683363039</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P2">
-        <v>0.3071469942766215</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q2">
-        <v>0.43900655091</v>
+        <v>7.607721559483501</v>
       </c>
       <c r="R2">
-        <v>1.75602620364</v>
+        <v>30.430886237934</v>
       </c>
       <c r="S2">
-        <v>0.004782424285301874</v>
+        <v>0.0738796944704183</v>
       </c>
       <c r="T2">
-        <v>0.002587259814655905</v>
+        <v>0.05470588378845831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8417399999999999</v>
+        <v>6.056093000000001</v>
       </c>
       <c r="H3">
-        <v>1.68348</v>
+        <v>12.112186</v>
       </c>
       <c r="I3">
-        <v>0.0119744574213572</v>
+        <v>0.07401743124477776</v>
       </c>
       <c r="J3">
-        <v>0.008423523143208028</v>
+        <v>0.05485886923375932</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,84 +626,84 @@
         <v>0.007026</v>
       </c>
       <c r="O3">
-        <v>0.001793436954986034</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P3">
-        <v>0.002068861340060323</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q3">
-        <v>0.00197135508</v>
+        <v>0.014183369806</v>
       </c>
       <c r="R3">
-        <v>0.01182813048</v>
+        <v>0.08510021883600001</v>
       </c>
       <c r="S3">
-        <v>2.147543445536877E-05</v>
+        <v>0.0001377367743594676</v>
       </c>
       <c r="T3">
-        <v>1.74271013780865E-05</v>
+        <v>0.000152985445301006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>57.09845533333333</v>
+      </c>
+      <c r="H4">
+        <v>171.295366</v>
+      </c>
+      <c r="I4">
+        <v>0.6978560256287368</v>
+      </c>
+      <c r="J4">
+        <v>0.7758360120743639</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.8417399999999999</v>
-      </c>
-      <c r="H4">
-        <v>1.68348</v>
-      </c>
-      <c r="I4">
-        <v>0.0119744574213572</v>
-      </c>
-      <c r="J4">
-        <v>0.008423523143208028</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.781984</v>
+        <v>1.2562095</v>
       </c>
       <c r="N4">
-        <v>2.345952</v>
+        <v>2.512419</v>
       </c>
       <c r="O4">
-        <v>0.5988210947087101</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P4">
-        <v>0.6907841443833183</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q4">
-        <v>0.6582272121599999</v>
+        <v>71.72762202505901</v>
       </c>
       <c r="R4">
-        <v>3.94936327296</v>
+        <v>430.365732150354</v>
       </c>
       <c r="S4">
-        <v>0.007170557701599954</v>
+        <v>0.6965574066909956</v>
       </c>
       <c r="T4">
-        <v>0.005818836227174037</v>
+        <v>0.7736724308805555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,196 +732,196 @@
         <v>171.295366</v>
       </c>
       <c r="I5">
-        <v>0.8122734124721004</v>
+        <v>0.6978560256287368</v>
       </c>
       <c r="J5">
-        <v>0.8570998644624763</v>
+        <v>0.7758360120743639</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5215465</v>
+        <v>0.002342</v>
       </c>
       <c r="N5">
-        <v>1.043093</v>
+        <v>0.007026</v>
       </c>
       <c r="O5">
-        <v>0.3993854683363039</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P5">
-        <v>0.3071469942766215</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q5">
-        <v>29.77949953450634</v>
+        <v>0.1337245823906667</v>
       </c>
       <c r="R5">
-        <v>178.676997207038</v>
+        <v>1.203521241516</v>
       </c>
       <c r="S5">
-        <v>0.3244101972572976</v>
+        <v>0.001298618937741127</v>
       </c>
       <c r="T5">
-        <v>0.2632556471645492</v>
+        <v>0.002163581193808351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.09845533333333</v>
+        <v>18.615262</v>
       </c>
       <c r="H6">
-        <v>171.295366</v>
+        <v>37.230524</v>
       </c>
       <c r="I6">
-        <v>0.8122734124721004</v>
+        <v>0.2275153098191398</v>
       </c>
       <c r="J6">
-        <v>0.8570998644624763</v>
+        <v>0.1686255848135372</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.002342</v>
+        <v>1.2562095</v>
       </c>
       <c r="N6">
-        <v>0.007026</v>
+        <v>2.512419</v>
       </c>
       <c r="O6">
-        <v>0.001793436954986034</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P6">
-        <v>0.002068861340060323</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q6">
-        <v>0.1337245823906667</v>
+        <v>23.384668969389</v>
       </c>
       <c r="R6">
-        <v>1.203521241516</v>
+        <v>93.538675877556</v>
       </c>
       <c r="S6">
-        <v>0.001456761155480079</v>
+        <v>0.2270919335364876</v>
       </c>
       <c r="T6">
-        <v>0.00177322077415736</v>
+        <v>0.1681553370570273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.09845533333333</v>
+        <v>18.615262</v>
       </c>
       <c r="H7">
-        <v>171.295366</v>
+        <v>37.230524</v>
       </c>
       <c r="I7">
-        <v>0.8122734124721004</v>
+        <v>0.2275153098191398</v>
       </c>
       <c r="J7">
-        <v>0.8570998644624763</v>
+        <v>0.1686255848135372</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.781984</v>
+        <v>0.002342</v>
       </c>
       <c r="N7">
-        <v>2.345952</v>
+        <v>0.007026</v>
       </c>
       <c r="O7">
-        <v>0.5988210947087101</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P7">
-        <v>0.6907841443833183</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q7">
-        <v>44.65007849538134</v>
+        <v>0.043596943604</v>
       </c>
       <c r="R7">
-        <v>401.850706458432</v>
+        <v>0.261581661624</v>
       </c>
       <c r="S7">
-        <v>0.4864064540593228</v>
+        <v>0.0004233762826522597</v>
       </c>
       <c r="T7">
-        <v>0.5920709965237697</v>
+        <v>0.0004702477565098315</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02523366666666666</v>
+        <v>0.044676</v>
       </c>
       <c r="H8">
-        <v>0.07570099999999999</v>
+        <v>0.134028</v>
       </c>
       <c r="I8">
-        <v>0.000358970070431155</v>
+        <v>0.0005460290583866018</v>
       </c>
       <c r="J8">
-        <v>0.0003787803392163797</v>
+        <v>0.0006070435613903465</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,60 +930,60 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5215465</v>
+        <v>1.2562095</v>
       </c>
       <c r="N8">
-        <v>1.043093</v>
+        <v>2.512419</v>
       </c>
       <c r="O8">
-        <v>0.3993854683363039</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P8">
-        <v>0.3071469942766215</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q8">
-        <v>0.01316053053216667</v>
+        <v>0.056122415622</v>
       </c>
       <c r="R8">
-        <v>0.078963183193</v>
+        <v>0.336734493732</v>
       </c>
       <c r="S8">
-        <v>0.0001433674296978628</v>
+        <v>0.0005450129696093516</v>
       </c>
       <c r="T8">
-        <v>0.0001163412426813901</v>
+        <v>0.0006053506932934725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02523366666666666</v>
+        <v>0.044676</v>
       </c>
       <c r="H9">
-        <v>0.07570099999999999</v>
+        <v>0.134028</v>
       </c>
       <c r="I9">
-        <v>0.000358970070431155</v>
+        <v>0.0005460290583866018</v>
       </c>
       <c r="J9">
-        <v>0.0003787803392163797</v>
+        <v>0.0006070435613903465</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,642 +998,146 @@
         <v>0.007026</v>
       </c>
       <c r="O9">
-        <v>0.001793436954986034</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P9">
-        <v>0.002068861340060323</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q9">
-        <v>5.909724733333333E-05</v>
+        <v>0.000104631192</v>
       </c>
       <c r="R9">
-        <v>0.000531875226</v>
+        <v>0.0009416807280000001</v>
       </c>
       <c r="S9">
-        <v>6.437901900451728E-07</v>
+        <v>1.016088777250213E-06</v>
       </c>
       <c r="T9">
-        <v>7.83644000179703E-07</v>
+        <v>1.692868096873944E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02523366666666666</v>
+        <v>0.005334999999999999</v>
       </c>
       <c r="H10">
-        <v>0.07570099999999999</v>
+        <v>0.016005</v>
       </c>
       <c r="I10">
-        <v>0.000358970070431155</v>
+        <v>6.520424895900529E-05</v>
       </c>
       <c r="J10">
-        <v>0.0003787803392163797</v>
+        <v>7.249031694908894E-05</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.781984</v>
+        <v>1.2562095</v>
       </c>
       <c r="N10">
-        <v>2.345952</v>
+        <v>2.512419</v>
       </c>
       <c r="O10">
-        <v>0.5988210947087101</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P10">
-        <v>0.6907841443833183</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q10">
-        <v>0.01973232359466667</v>
+        <v>0.006701877682499999</v>
       </c>
       <c r="R10">
-        <v>0.177590912352</v>
+        <v>0.040211266095</v>
       </c>
       <c r="S10">
-        <v>0.000214958850543247</v>
+        <v>6.508291236605538E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002616554525348099</v>
+        <v>7.228816251948864E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>10.1875185</v>
+        <v>0.005334999999999999</v>
       </c>
       <c r="H11">
-        <v>20.375037</v>
+        <v>0.016005</v>
       </c>
       <c r="I11">
-        <v>0.1449259943777636</v>
+        <v>6.520424895900529E-05</v>
       </c>
       <c r="J11">
-        <v>0.1019492929605459</v>
+        <v>7.249031694908894E-05</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.5215465</v>
+        <v>0.002342</v>
       </c>
       <c r="N11">
-        <v>1.043093</v>
+        <v>0.007026</v>
       </c>
       <c r="O11">
-        <v>0.3993854683363039</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P11">
-        <v>0.3071469942766215</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q11">
-        <v>5.31326461736025</v>
+        <v>1.249457E-05</v>
       </c>
       <c r="R11">
-        <v>21.253058469441</v>
+        <v>0.00011245113</v>
       </c>
       <c r="S11">
-        <v>0.05788133613866766</v>
+        <v>1.213365929499034E-07</v>
       </c>
       <c r="T11">
-        <v>0.0313134189014584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>10.1875185</v>
-      </c>
-      <c r="H12">
-        <v>20.375037</v>
-      </c>
-      <c r="I12">
-        <v>0.1449259943777636</v>
-      </c>
-      <c r="J12">
-        <v>0.1019492929605459</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.002342</v>
-      </c>
-      <c r="N12">
-        <v>0.007026</v>
-      </c>
-      <c r="O12">
-        <v>0.001793436954986034</v>
-      </c>
-      <c r="P12">
-        <v>0.002068861340060323</v>
-      </c>
-      <c r="Q12">
-        <v>0.023859168327</v>
-      </c>
-      <c r="R12">
-        <v>0.143155009962</v>
-      </c>
-      <c r="S12">
-        <v>0.0002599156340551794</v>
-      </c>
-      <c r="T12">
-        <v>0.0002109189508525575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>10.1875185</v>
-      </c>
-      <c r="H13">
-        <v>20.375037</v>
-      </c>
-      <c r="I13">
-        <v>0.1449259943777636</v>
-      </c>
-      <c r="J13">
-        <v>0.1019492929605459</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.781984</v>
-      </c>
-      <c r="N13">
-        <v>2.345952</v>
-      </c>
-      <c r="O13">
-        <v>0.5988210947087101</v>
-      </c>
-      <c r="P13">
-        <v>0.6907841443833183</v>
-      </c>
-      <c r="Q13">
-        <v>7.966476466704</v>
-      </c>
-      <c r="R13">
-        <v>47.798858800224</v>
-      </c>
-      <c r="S13">
-        <v>0.08678474260504077</v>
-      </c>
-      <c r="T13">
-        <v>0.07042495510823497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.060578</v>
-      </c>
-      <c r="H14">
-        <v>6.181734</v>
-      </c>
-      <c r="I14">
-        <v>0.02931345014420768</v>
-      </c>
-      <c r="J14">
-        <v>0.03093115416527428</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.5215465</v>
-      </c>
-      <c r="N14">
-        <v>1.043093</v>
-      </c>
-      <c r="O14">
-        <v>0.3993854683363039</v>
-      </c>
-      <c r="P14">
-        <v>0.3071469942766215</v>
-      </c>
-      <c r="Q14">
-        <v>1.074687243877</v>
-      </c>
-      <c r="R14">
-        <v>6.448123463262</v>
-      </c>
-      <c r="S14">
-        <v>0.01170736601439728</v>
-      </c>
-      <c r="T14">
-        <v>0.009500411031370793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.060578</v>
-      </c>
-      <c r="H15">
-        <v>6.181734</v>
-      </c>
-      <c r="I15">
-        <v>0.02931345014420768</v>
-      </c>
-      <c r="J15">
-        <v>0.03093115416527428</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.002342</v>
-      </c>
-      <c r="N15">
-        <v>0.007026</v>
-      </c>
-      <c r="O15">
-        <v>0.001793436954986034</v>
-      </c>
-      <c r="P15">
-        <v>0.002068861340060323</v>
-      </c>
-      <c r="Q15">
-        <v>0.004825873676</v>
-      </c>
-      <c r="R15">
-        <v>0.043432863084</v>
-      </c>
-      <c r="S15">
-        <v>5.257182476676274E-05</v>
-      </c>
-      <c r="T15">
-        <v>6.399226905598177E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.060578</v>
-      </c>
-      <c r="H16">
-        <v>6.181734</v>
-      </c>
-      <c r="I16">
-        <v>0.02931345014420768</v>
-      </c>
-      <c r="J16">
-        <v>0.03093115416527428</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.781984</v>
-      </c>
-      <c r="N16">
-        <v>2.345952</v>
-      </c>
-      <c r="O16">
-        <v>0.5988210947087101</v>
-      </c>
-      <c r="P16">
-        <v>0.6907841443833183</v>
-      </c>
-      <c r="Q16">
-        <v>1.611339026752</v>
-      </c>
-      <c r="R16">
-        <v>14.502051240768</v>
-      </c>
-      <c r="S16">
-        <v>0.01755351230504364</v>
-      </c>
-      <c r="T16">
-        <v>0.0213667508648475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.08109999999999999</v>
-      </c>
-      <c r="H17">
-        <v>0.2433</v>
-      </c>
-      <c r="I17">
-        <v>0.00115371551413984</v>
-      </c>
-      <c r="J17">
-        <v>0.001217384929278942</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.5215465</v>
-      </c>
-      <c r="N17">
-        <v>1.043093</v>
-      </c>
-      <c r="O17">
-        <v>0.3993854683363039</v>
-      </c>
-      <c r="P17">
-        <v>0.3071469942766215</v>
-      </c>
-      <c r="Q17">
-        <v>0.04229742115</v>
-      </c>
-      <c r="R17">
-        <v>0.2537845269</v>
-      </c>
-      <c r="S17">
-        <v>0.0004607772109415995</v>
-      </c>
-      <c r="T17">
-        <v>0.0003739161219056844</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.08109999999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.2433</v>
-      </c>
-      <c r="I18">
-        <v>0.00115371551413984</v>
-      </c>
-      <c r="J18">
-        <v>0.001217384929278942</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.002342</v>
-      </c>
-      <c r="N18">
-        <v>0.007026</v>
-      </c>
-      <c r="O18">
-        <v>0.001793436954986034</v>
-      </c>
-      <c r="P18">
-        <v>0.002068861340060323</v>
-      </c>
-      <c r="Q18">
-        <v>0.0001899362</v>
-      </c>
-      <c r="R18">
-        <v>0.0017094258</v>
-      </c>
-      <c r="S18">
-        <v>2.069116038599101E-06</v>
-      </c>
-      <c r="T18">
-        <v>2.518600616157273E-06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.08109999999999999</v>
-      </c>
-      <c r="H19">
-        <v>0.2433</v>
-      </c>
-      <c r="I19">
-        <v>0.00115371551413984</v>
-      </c>
-      <c r="J19">
-        <v>0.001217384929278942</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.781984</v>
-      </c>
-      <c r="N19">
-        <v>2.345952</v>
-      </c>
-      <c r="O19">
-        <v>0.5988210947087101</v>
-      </c>
-      <c r="P19">
-        <v>0.6907841443833183</v>
-      </c>
-      <c r="Q19">
-        <v>0.06341890239999999</v>
-      </c>
-      <c r="R19">
-        <v>0.5707701216</v>
-      </c>
-      <c r="S19">
-        <v>0.0006908691871596412</v>
-      </c>
-      <c r="T19">
-        <v>0.0008409502067571003</v>
+        <v>2.021544296002885E-07</v>
       </c>
     </row>
   </sheetData>
